--- a/CDE_ID_detective_revamp/ReRun/Data_Dictionary_Tracker_as_of_2025-07-08.xlsx
+++ b/CDE_ID_detective_revamp/ReRun/Data_Dictionary_Tracker_as_of_2025-07-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\ReRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE4C4EC-4961-4D91-9B8B-7CD438A3EFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08CE5C-7DFA-4BB5-A74E-361BD5A1B094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37905" yWindow="7965" windowWidth="21930" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37635" yWindow="9345" windowWidth="21660" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary track" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="437">
   <si>
     <t>Data Dictionary Tracker</t>
   </si>
@@ -1252,22 +1252,88 @@
     <t>Part 2 Run</t>
   </si>
   <si>
-    <t>HDP00002_HELPForNOWS_INFORMNOW_DataDictionary_REDCap.vlmd_2025-07-22</t>
-  </si>
-  <si>
-    <t>HDP00110_PRECICEV2_DataDictionary_2023-08-11.vlmd_2025-07-22</t>
-  </si>
-  <si>
-    <t>HDP00540_ACTNOWESC_DataDictionary_clean.redcap.vlmd_2025-07-22</t>
-  </si>
-  <si>
-    <t>HDP01057_HRRN_baseline_survey.vlmd_2025-07-28_matches_confirmed.xlsx</t>
-  </si>
-  <si>
-    <t>HDP00066_ACTNOWOBOE_DataDictionary_REDCap.vlmd_2025-07-29_matches_confirmed</t>
-  </si>
-  <si>
-    <t>HDP00210_MOMNESTSHARED_DataDictionary_2024-07-20.redcap.vlmd_2025-07-29_matches_confirmed.xlsx</t>
+    <t>HDP00066_ACTNOWOBOE_DataDictionary_REDCap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00002_HELPForNOWS_INFORMNOW_DataDictionary_REDCap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00210_MOMNESTSHARED_DataDictionary_2024-07-20.redcap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00540_ACTNOWESC_DataDictionary_clean.redcap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP01057_HRRN_baseline_survey.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00110_PRECICEV2_DataDictionary_2023-08-11.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00223_WholeHealth_REDCap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00337_BSCIP1_DataDictionary_2023-08-07.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00429_HDP00429_BACPAC.redcap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00541_HDP00541_odc-sci_940_dict.redcap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00908_Hoeppner_REDCap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00927_Shover_DataDictionary.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00933_DataDictionary_2025-04-21.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00952_952_Data_Dictionary.redcap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP01068_HERO RedCap Codebook_2025-02-11.redcap.vlmd_2025-07-30_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00556_codebook.redcap.vlmd_2025-07-30.xlsx</t>
+  </si>
+  <si>
+    <t>HDP00825_HDP00825_heal-dd-Final_deidentified_OBOT_dataset.redcap.vlmd_2025-07-30_matches_confirmed</t>
+  </si>
+  <si>
+    <t>HDP00980_iHOPE Aim1 DataDictionary.redcap.vlmd_2025-07-30_matches_confirmed</t>
+  </si>
+  <si>
+    <t>HDP01171_HDP01171_DataDictionary.vlmd_2025-07-31_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP01193_SCOPE_Data_Dictionary.redcap.vlmd_2025-07-31_matches_confirmed.xlxs</t>
+  </si>
+  <si>
+    <t>HDP01239_derived.redcap.vlmd_2025-07-31_matches_confirmed.xlxs</t>
+  </si>
+  <si>
+    <t>HDP01265_odc-sci_786_dict_clean.redcap.vlmd_2025-07-31_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP01287_ctn0095a2_clean.redcap.vlmd_2025-07-31_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP01310_HDP01310_CTN0087_Data_Dictionary.redcap.vlmd_2025-07-31_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP01329_HDP01329_EQUIPD_DataDictionary.redcap.vlmd_2025-07-31_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>HDP01498_FMTIPSDataEntry202308071358RED_DataDictionary_2023-08-22.vlmd_2025-07-31_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>SPRINT_2020-12-16_2025-07-31_matches_confirmed.xlsx</t>
+  </si>
+  <si>
+    <t>StressFirstAidAim3FieldTestAss_DataDictionary_2024-11-14.vlmd_2025-07-31.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -1493,6 +1559,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -2085,7 +2157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2168,12 +2240,6 @@
     <xf numFmtId="0" fontId="29" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2184,9 +2250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2237,12 +2300,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2261,22 +2318,7 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2312,14 +2354,96 @@
     <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2327,7 +2451,142 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2660,10 +2919,10 @@
   <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="23" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="23" ySplit="2" topLeftCell="Z18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA8" sqref="AA8"/>
+      <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -2693,7 +2952,7 @@
     <col min="23" max="23" width="17.625" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="19.8125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="65.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="72.75" customWidth="1"/>
     <col min="27" max="27" width="100.4375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="78.4375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="31.375" bestFit="1" customWidth="1"/>
@@ -2712,7 +2971,7 @@
       </c>
     </row>
     <row r="2" spans="1:40" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>341</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2787,13 +3046,13 @@
       <c r="Y2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="Z2" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="AB2" s="32" t="s">
+      <c r="AB2" s="30" t="s">
         <v>408</v>
       </c>
       <c r="AC2" s="3" t="s">
@@ -2834,14 +3093,14 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>206</v>
       </c>
       <c r="C3" s="5">
-        <v>45178</v>
+        <v>45154</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>39</v>
@@ -2853,29 +3112,25 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45672</v>
+        <v>1</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="8" t="s">
         <v>47</v>
       </c>
@@ -2886,16 +3141,16 @@
         <v>47</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>1</v>
@@ -2904,24 +3159,26 @@
         <v>47</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="Y3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="64" t="s">
-        <v>117</v>
+      <c r="Z3" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA3" s="69" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="AD3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE3" s="70" t="s">
-        <v>1</v>
+      <c r="AE3" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="AF3" s="5">
         <v>45621</v>
@@ -2939,7 +3196,7 @@
         <v>45523</v>
       </c>
       <c r="AK3" s="5">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="AL3" s="5">
         <v>45824</v>
@@ -2948,18 +3205,18 @@
         <v>1</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>63</v>
+      <c r="A4" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>39</v>
@@ -2968,30 +3225,30 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="5" t="s">
-        <v>1</v>
+        <v>166</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45839</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>251</v>
+        <v>168</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="8" t="s">
         <v>47</v>
       </c>
@@ -3002,7 +3259,7 @@
         <v>47</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="S4" s="6" t="s">
         <v>65</v>
@@ -3011,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>1</v>
@@ -3020,18 +3277,20 @@
         <v>47</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="Y4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="64" t="s">
-        <v>117</v>
+      <c r="Z4" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="AD4" s="13" t="s">
         <v>54</v>
@@ -3045,8 +3304,8 @@
       <c r="AG4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AH4" s="16" t="s">
-        <v>54</v>
+      <c r="AH4" s="64" t="s">
+        <v>1</v>
       </c>
       <c r="AI4" s="5">
         <v>45520</v>
@@ -3055,27 +3314,27 @@
         <v>45523</v>
       </c>
       <c r="AK4" s="5">
-        <v>45530</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>45824</v>
+        <v>45523</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AM4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>63</v>
+      <c r="A5" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="C5" s="5">
-        <v>45154</v>
+        <v>45630</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>39</v>
@@ -3084,28 +3343,32 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45831</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="O5" s="8" t="s">
         <v>47</v>
       </c>
@@ -3116,71 +3379,65 @@
         <v>47</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="W5" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" s="63" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA5" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y5" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA5" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="57" t="s">
         <v>53</v>
       </c>
       <c r="AD5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE5" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE5" s="60"/>
       <c r="AF5" s="5">
-        <v>45621</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5" s="16" t="s">
-        <v>54</v>
-      </c>
+        <v>45838</v>
+      </c>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="64"/>
       <c r="AI5" s="5">
-        <v>45520</v>
+        <v>45631</v>
       </c>
       <c r="AJ5" s="5">
-        <v>45523</v>
+        <v>45664</v>
       </c>
       <c r="AK5" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM5" s="5" t="s">
-        <v>1</v>
+        <v>45819</v>
+      </c>
+      <c r="AL5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>45679</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3188,10 +3445,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5">
-        <v>45161</v>
+        <v>45145</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
@@ -3205,89 +3462,89 @@
       <c r="G6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="35"/>
       <c r="I6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="O6" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="U6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V6" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="V6" s="6"/>
       <c r="W6" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y6" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="76" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA6" s="76" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB6" s="6"/>
+      <c r="Z6" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB6" s="69"/>
       <c r="AC6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="AD6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE6" s="71" t="s">
+      <c r="AE6" s="61" t="s">
         <v>54</v>
       </c>
       <c r="AF6" s="5">
         <v>45601</v>
       </c>
-      <c r="AG6" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH6" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" s="5">
-        <v>45518</v>
-      </c>
-      <c r="AJ6" s="5">
-        <v>45523</v>
+      <c r="AG6" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH6" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AK6" s="5">
-        <v>45548</v>
+        <v>45536</v>
       </c>
       <c r="AL6" s="5">
         <v>45824</v>
@@ -3296,18 +3553,18 @@
         <v>1</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C7" s="5">
-        <v>45182</v>
+        <v>45714</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>39</v>
@@ -3316,50 +3573,52 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>42</v>
+        <v>171</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="I7" s="5">
-        <v>45839</v>
+        <v>45810</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="O7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V7" s="6" t="s">
         <v>1</v>
@@ -3368,16 +3627,16 @@
         <v>47</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y7" s="50" t="s">
-        <v>52</v>
+        <v>381</v>
+      </c>
+      <c r="Y7" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="12" t="s">
@@ -3386,46 +3645,40 @@
       <c r="AD7" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE7" s="71" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE7" s="18"/>
       <c r="AF7" s="5">
-        <v>45621</v>
-      </c>
-      <c r="AG7" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" s="20" t="s">
-        <v>1</v>
-      </c>
+        <v>45779</v>
+      </c>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="20"/>
       <c r="AI7" s="5">
-        <v>45520</v>
+        <v>45714</v>
       </c>
       <c r="AJ7" s="5">
-        <v>45523</v>
+        <v>45737</v>
       </c>
       <c r="AK7" s="5">
-        <v>45523</v>
+        <v>45771</v>
       </c>
       <c r="AL7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AM7" s="5" t="s">
-        <v>1</v>
+      <c r="AM7" s="5">
+        <v>45722</v>
       </c>
       <c r="AN7" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>63</v>
+      <c r="A8" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>240</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5">
-        <v>45487</v>
+        <v>45478</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>39</v>
@@ -3437,27 +3690,27 @@
         <v>57</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="5" t="s">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45671</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="8" t="s">
         <v>47</v>
       </c>
@@ -3468,7 +3721,7 @@
         <v>47</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="S8" s="6" t="s">
         <v>65</v>
@@ -3486,16 +3739,16 @@
         <v>47</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="Y8" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="76" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA8" s="78" t="s">
-        <v>414</v>
+        <v>375</v>
+      </c>
+      <c r="Y8" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>418</v>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="12" t="s">
@@ -3504,46 +3757,40 @@
       <c r="AD8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE8" s="71" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE8" s="18"/>
       <c r="AF8" s="5">
-        <v>45672</v>
-      </c>
-      <c r="AG8" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH8" s="75" t="s">
-        <v>54</v>
-      </c>
+        <v>45792</v>
+      </c>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="20"/>
       <c r="AI8" s="5">
-        <v>45520</v>
+        <v>45478</v>
       </c>
       <c r="AJ8" s="5">
         <v>45523</v>
       </c>
       <c r="AK8" s="5">
-        <v>45560</v>
-      </c>
-      <c r="AL8" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>1</v>
+        <v>45783</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>45776</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C9" s="5">
-        <v>45630</v>
+        <v>45478</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>39</v>
@@ -3552,32 +3799,30 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>157</v>
+        <v>136</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="I9" s="5">
-        <v>45831</v>
+        <v>45671</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="8" t="s">
         <v>47</v>
       </c>
@@ -3588,33 +3833,35 @@
         <v>47</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="S9" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="W9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y9" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y9" s="48" t="s">
         <v>129</v>
       </c>
       <c r="Z9" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA9" s="6"/>
+        <v>352</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="12" t="s">
         <v>53</v>
@@ -3629,33 +3876,33 @@
       <c r="AG9" s="19"/>
       <c r="AH9" s="20"/>
       <c r="AI9" s="5">
-        <v>45631</v>
+        <v>45671</v>
       </c>
       <c r="AJ9" s="5">
-        <v>45664</v>
+        <v>45799</v>
       </c>
       <c r="AK9" s="5">
-        <v>45819</v>
+        <v>45831</v>
       </c>
       <c r="AL9" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM9" s="5">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>63</v>
+      <c r="A10" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5">
-        <v>45145</v>
+        <v>45478</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>39</v>
@@ -3664,26 +3911,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="38"/>
-      <c r="I10" s="5" t="s">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45682</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>63</v>
@@ -3692,73 +3941,71 @@
         <v>47</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="S10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="W10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y10" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
+        <v>371</v>
+      </c>
+      <c r="Y10" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="AB10" s="69"/>
       <c r="AC10" s="12" t="s">
         <v>53</v>
       </c>
       <c r="AD10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE10" s="71" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE10" s="18"/>
       <c r="AF10" s="5">
-        <v>45601</v>
-      </c>
-      <c r="AG10" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH10" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>1</v>
+        <v>45777</v>
+      </c>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="5">
+        <v>45520</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>45523</v>
       </c>
       <c r="AK10" s="5">
-        <v>45536</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM10" s="5" t="s">
-        <v>1</v>
+        <v>45775</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>45701</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3766,10 +4013,10 @@
         <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="C11" s="5">
-        <v>45714</v>
+        <v>45195</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>39</v>
@@ -3781,25 +4028,23 @@
         <v>102</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="5">
-        <v>45810</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>63</v>
@@ -3808,22 +4053,22 @@
         <v>47</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="V11" s="6" t="s">
         <v>1</v>
@@ -3832,56 +4077,64 @@
         <v>47</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y11" s="49" t="s">
-        <v>85</v>
+        <v>390</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA11" s="6"/>
+        <v>400</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="65" t="s">
+      <c r="AC11" s="55" t="s">
         <v>53</v>
       </c>
       <c r="AD11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE11" s="18"/>
+      <c r="AE11" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF11" s="5">
-        <v>45779</v>
-      </c>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="74"/>
+        <v>45601</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH11" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AI11" s="5">
-        <v>45714</v>
+        <v>45520</v>
       </c>
       <c r="AJ11" s="5">
-        <v>45737</v>
+        <v>45523</v>
       </c>
       <c r="AK11" s="5">
-        <v>45771</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="5">
-        <v>45722</v>
+        <v>45523</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN11" s="6" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="s">
-        <v>2</v>
+      <c r="A12" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5">
-        <v>45160</v>
+        <v>45150</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>39</v>
@@ -3893,41 +4146,41 @@
         <v>40</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="5">
-        <v>45672</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="41" t="s">
         <v>47</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q12" s="46" t="s">
+      <c r="Q12" s="43" t="s">
         <v>47</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>1</v>
@@ -3938,38 +4191,38 @@
       <c r="V12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W12" s="48" t="s">
+      <c r="W12" s="45" t="s">
         <v>47</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y12" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y12" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z12" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="67" t="s">
+      <c r="Z12" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA12" s="69" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="57" t="s">
         <v>53</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE12" s="71" t="s">
+      <c r="AE12" s="61" t="s">
         <v>54</v>
       </c>
       <c r="AF12" s="5">
-        <v>45611</v>
-      </c>
-      <c r="AG12" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH12" s="75" t="s">
+        <v>45666</v>
+      </c>
+      <c r="AG12" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH12" s="65" t="s">
         <v>54</v>
       </c>
       <c r="AI12" s="5">
@@ -3979,7 +4232,7 @@
         <v>45523</v>
       </c>
       <c r="AK12" s="5">
-        <v>45548</v>
+        <v>45523</v>
       </c>
       <c r="AL12" s="5">
         <v>45824</v>
@@ -3988,18 +4241,18 @@
         <v>1</v>
       </c>
       <c r="AN12" s="6" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
-        <v>2</v>
+      <c r="A13" t="s">
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="C13" s="5">
-        <v>45478</v>
+        <v>45768</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>39</v>
@@ -4008,67 +4261,69 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="5">
-        <v>45671</v>
+        <v>1</v>
+      </c>
+      <c r="H13" s="35"/>
+      <c r="I13" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="O13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U13" s="6" t="s">
         <v>67</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="W13" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="Y13" s="25" t="s">
         <v>129</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA13" s="6"/>
+        <v>406</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="12" t="s">
         <v>53</v>
@@ -4078,38 +4333,38 @@
       </c>
       <c r="AE13" s="18"/>
       <c r="AF13" s="5">
-        <v>45792</v>
+        <v>45805</v>
       </c>
       <c r="AG13" s="19"/>
       <c r="AH13" s="20"/>
       <c r="AI13" s="5">
-        <v>45478</v>
+        <v>45768</v>
       </c>
       <c r="AJ13" s="5">
-        <v>45523</v>
+        <v>45777</v>
       </c>
       <c r="AK13" s="5">
-        <v>45783</v>
+        <v>45804</v>
       </c>
       <c r="AL13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM13" s="5">
-        <v>45776</v>
+        <v>45778</v>
       </c>
       <c r="AN13" s="6" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5">
-        <v>45478</v>
+        <v>45672</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>39</v>
@@ -4121,27 +4376,29 @@
         <v>57</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="5">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N14" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="O14" s="8" t="s">
         <v>47</v>
       </c>
@@ -4152,33 +4409,35 @@
         <v>47</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="W14" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y14" s="25" t="s">
-        <v>129</v>
+        <v>370</v>
+      </c>
+      <c r="Y14" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA14" s="6"/>
+        <v>347</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="12" t="s">
         <v>53</v>
@@ -4188,18 +4447,20 @@
       </c>
       <c r="AE14" s="18"/>
       <c r="AF14" s="5">
-        <v>45838</v>
+        <v>45768</v>
       </c>
       <c r="AG14" s="19"/>
-      <c r="AH14" s="20"/>
+      <c r="AH14" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="AI14" s="5">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="AJ14" s="5">
-        <v>45799</v>
+        <v>45691</v>
       </c>
       <c r="AK14" s="5">
-        <v>45831</v>
+        <v>45768</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>1</v>
@@ -4208,15 +4469,15 @@
         <v>45680</v>
       </c>
       <c r="AN14" s="6" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5">
         <v>45478</v>
@@ -4231,22 +4492,22 @@
         <v>57</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I15" s="5">
-        <v>45682</v>
+        <v>45672</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>62</v>
@@ -4264,63 +4525,71 @@
         <v>47</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="U15" s="6" t="s">
         <v>67</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="W15" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y15" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
+        <v>366</v>
+      </c>
+      <c r="Y15" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z15" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA15" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AB15" s="69"/>
       <c r="AC15" s="12" t="s">
         <v>53</v>
       </c>
       <c r="AD15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE15" s="18"/>
+      <c r="AE15" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF15" s="5">
-        <v>45777</v>
-      </c>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="5">
-        <v>45520</v>
+        <v>45666</v>
+      </c>
+      <c r="AG15" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH15" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AJ15" s="5">
         <v>45523</v>
       </c>
       <c r="AK15" s="5">
-        <v>45775</v>
-      </c>
-      <c r="AL15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="5">
-        <v>45701</v>
+        <v>45560</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM15" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN15" s="6" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4328,10 +4597,10 @@
         <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C16" s="5">
-        <v>45195</v>
+        <v>45699</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>39</v>
@@ -4345,21 +4614,21 @@
       <c r="G16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>63</v>
@@ -4368,22 +4637,22 @@
         <v>47</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>65</v>
+        <v>224</v>
       </c>
       <c r="T16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V16" s="6" t="s">
         <v>1</v>
@@ -4392,62 +4661,60 @@
         <v>47</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y16" s="55" t="s">
-        <v>52</v>
+        <v>393</v>
+      </c>
+      <c r="Y16" s="68" t="s">
+        <v>85</v>
       </c>
       <c r="Z16" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA16" s="6"/>
+        <v>402</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="AB16" s="6"/>
-      <c r="AC16" s="69" t="s">
+      <c r="AC16" s="59" t="s">
         <v>53</v>
       </c>
       <c r="AD16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE16" s="71" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE16" s="18"/>
       <c r="AF16" s="5">
-        <v>45601</v>
-      </c>
-      <c r="AG16" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH16" s="75" t="s">
-        <v>54</v>
+        <v>45768</v>
+      </c>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="AI16" s="5">
-        <v>45520</v>
+        <v>45699</v>
       </c>
       <c r="AJ16" s="5">
-        <v>45523</v>
+        <v>45708</v>
       </c>
       <c r="AK16" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL16" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM16" s="5" t="s">
-        <v>1</v>
+        <v>45768</v>
+      </c>
+      <c r="AL16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>45708</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>63</v>
+      <c r="A17" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C17" s="5">
-        <v>45150</v>
+        <v>45720</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>39</v>
@@ -4456,26 +4723,28 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="5" t="s">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="5">
+        <v>45720</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>63</v>
@@ -4490,7 +4759,7 @@
         <v>47</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="S17" s="6" t="s">
         <v>65</v>
@@ -4499,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V17" s="6" t="s">
         <v>1</v>
@@ -4508,15 +4777,17 @@
         <v>47</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y17" s="57" t="s">
-        <v>52</v>
+        <v>374</v>
+      </c>
+      <c r="Y17" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA17" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>427</v>
+      </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="12" t="s">
         <v>53</v>
@@ -4524,35 +4795,29 @@
       <c r="AD17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE17" s="71" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE17" s="18"/>
       <c r="AF17" s="5">
-        <v>45666</v>
-      </c>
-      <c r="AG17" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH17" s="75" t="s">
-        <v>54</v>
-      </c>
+        <v>45792</v>
+      </c>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="20"/>
       <c r="AI17" s="5">
-        <v>45520</v>
+        <v>45715</v>
       </c>
       <c r="AJ17" s="5">
-        <v>45523</v>
+        <v>45777</v>
       </c>
       <c r="AK17" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL17" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM17" s="5" t="s">
-        <v>1</v>
+        <v>45789</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>45747</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -4560,10 +4825,10 @@
         <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C18" s="5">
-        <v>45768</v>
+        <v>45737</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>39</v>
@@ -4577,7 +4842,7 @@
       <c r="G18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="42"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="5" t="s">
         <v>1</v>
       </c>
@@ -4585,13 +4850,13 @@
         <v>43</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>63</v>
@@ -4600,13 +4865,13 @@
         <v>47</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="S18" s="6" t="s">
         <v>65</v>
@@ -4615,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>1</v>
@@ -4624,15 +4889,17 @@
         <v>47</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y18" s="25" t="s">
         <v>129</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA18" s="6"/>
+        <v>405</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="12" t="s">
         <v>53</v>
@@ -4642,38 +4909,38 @@
       </c>
       <c r="AE18" s="18"/>
       <c r="AF18" s="5">
-        <v>45805</v>
+        <v>45792</v>
       </c>
       <c r="AG18" s="19"/>
       <c r="AH18" s="20"/>
       <c r="AI18" s="5">
-        <v>45768</v>
+        <v>45737</v>
       </c>
       <c r="AJ18" s="5">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="AK18" s="5">
-        <v>45804</v>
+        <v>45789</v>
       </c>
       <c r="AL18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM18" s="5">
-        <v>45778</v>
+        <v>45775</v>
       </c>
       <c r="AN18" s="6" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C19" s="5">
-        <v>45672</v>
+        <v>45575</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>39</v>
@@ -4685,7 +4952,7 @@
         <v>57</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>42</v>
@@ -4694,19 +4961,19 @@
         <v>45672</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>47</v>
@@ -4718,7 +4985,7 @@
         <v>47</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="S19" s="6" t="s">
         <v>65</v>
@@ -4727,64 +4994,64 @@
         <v>1</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="W19" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y19" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z19" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="Y19" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z19" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA19" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="AB19" s="69"/>
       <c r="AC19" s="12" t="s">
         <v>53</v>
       </c>
       <c r="AD19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE19" s="70"/>
+      <c r="AE19" s="60"/>
       <c r="AF19" s="5">
-        <v>45768</v>
-      </c>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="20" t="s">
-        <v>1</v>
-      </c>
+        <v>45838</v>
+      </c>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="20"/>
       <c r="AI19" s="5">
-        <v>45672</v>
+        <v>45686</v>
       </c>
       <c r="AJ19" s="5">
         <v>45691</v>
       </c>
       <c r="AK19" s="5">
-        <v>45768</v>
+        <v>45831</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM19" s="5">
-        <v>45680</v>
+        <v>45692</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>86</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5">
         <v>45478</v>
@@ -4799,29 +5066,27 @@
         <v>57</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>42</v>
       </c>
       <c r="I20" s="5">
         <v>45672</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N20" s="6"/>
       <c r="O20" s="8" t="s">
         <v>47</v>
       </c>
@@ -4832,33 +5097,35 @@
         <v>47</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="S20" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="U20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="W20" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y20" s="50" t="s">
-        <v>52</v>
+        <v>368</v>
+      </c>
+      <c r="Y20" s="67" t="s">
+        <v>85</v>
       </c>
       <c r="Z20" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA20" s="6"/>
+        <v>345</v>
+      </c>
+      <c r="AA20" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="12" t="s">
         <v>53</v>
@@ -4866,46 +5133,46 @@
       <c r="AD20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE20" s="71" t="s">
-        <v>54</v>
+      <c r="AE20" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="AF20" s="5">
-        <v>45666</v>
-      </c>
-      <c r="AG20" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH20" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>1</v>
+        <v>45682</v>
+      </c>
+      <c r="AG20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>45520</v>
       </c>
       <c r="AJ20" s="5">
         <v>45523</v>
       </c>
       <c r="AK20" s="5">
-        <v>45560</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>45824</v>
+        <v>45678</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AM20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>63</v>
+      <c r="A21" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5">
-        <v>45257</v>
+        <v>45478</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>39</v>
@@ -4914,26 +5181,28 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="5" t="s">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="5">
+        <v>45478</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>63</v>
@@ -4942,77 +5211,77 @@
         <v>47</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="W21" s="10" t="s">
         <v>47</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y21" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z21" s="77" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA21" s="79" t="s">
-        <v>412</v>
-      </c>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y21" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z21" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA21" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="57" t="s">
         <v>53</v>
       </c>
       <c r="AD21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE21" s="71" t="s">
-        <v>54</v>
+      <c r="AE21" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="AF21" s="5">
-        <v>45601</v>
-      </c>
-      <c r="AG21" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI21" s="5">
-        <v>45520</v>
+        <v>45682</v>
+      </c>
+      <c r="AG21" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AJ21" s="5">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="AK21" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL21" s="5">
-        <v>45824</v>
+        <v>45680</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AM21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN21" s="6" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5020,10 +5289,10 @@
         <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C22" s="5">
-        <v>45699</v>
+        <v>45722</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>39</v>
@@ -5045,13 +5314,13 @@
         <v>43</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>63</v>
@@ -5066,13 +5335,13 @@
         <v>47</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>67</v>
@@ -5084,15 +5353,17 @@
         <v>47</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y22" s="49" t="s">
-        <v>85</v>
+        <v>395</v>
+      </c>
+      <c r="Y22" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA22" s="6"/>
+        <v>403</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="12" t="s">
         <v>53</v>
@@ -5100,39 +5371,37 @@
       <c r="AD22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE22" s="70"/>
+      <c r="AE22" s="60"/>
       <c r="AF22" s="5">
-        <v>45768</v>
-      </c>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="74" t="s">
-        <v>1</v>
-      </c>
+        <v>45787</v>
+      </c>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="64"/>
       <c r="AI22" s="5">
-        <v>45699</v>
+        <v>45722</v>
       </c>
       <c r="AJ22" s="5">
-        <v>45708</v>
+        <v>45734</v>
       </c>
       <c r="AK22" s="5">
-        <v>45768</v>
+        <v>45787</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM22" s="5">
-        <v>45708</v>
+        <v>45771</v>
       </c>
       <c r="AN22" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31" t="s">
-        <v>2</v>
+      <c r="A23" t="s">
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="C23" s="5">
         <v>45720</v>
@@ -5144,32 +5413,30 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>42</v>
+        <v>277</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="I23" s="5">
-        <v>45720</v>
+        <v>45779</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>126</v>
+        <v>278</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="N23" s="6"/>
       <c r="O23" s="8" t="s">
         <v>47</v>
       </c>
@@ -5180,7 +5447,7 @@
         <v>47</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="S23" s="6" t="s">
         <v>65</v>
@@ -5197,16 +5464,18 @@
       <c r="W23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="X23" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y23" s="56" t="s">
+      <c r="X23" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y23" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="Z23" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA23" s="6"/>
+      <c r="Z23" s="103" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="12" t="s">
         <v>53</v>
@@ -5214,29 +5483,29 @@
       <c r="AD23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE23" s="70"/>
+      <c r="AE23" s="60"/>
       <c r="AF23" s="5">
         <v>45792</v>
       </c>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="74"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="64"/>
       <c r="AI23" s="5">
-        <v>45715</v>
+        <v>45720</v>
       </c>
       <c r="AJ23" s="5">
-        <v>45777</v>
+        <v>45729</v>
       </c>
       <c r="AK23" s="5">
-        <v>45789</v>
+        <v>45783</v>
       </c>
       <c r="AL23" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM23" s="5">
-        <v>45747</v>
+        <v>45735</v>
       </c>
       <c r="AN23" s="6" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5244,10 +5513,10 @@
         <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="C24" s="5">
-        <v>45737</v>
+        <v>45161</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>39</v>
@@ -5256,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>1</v>
@@ -5266,16 +5535,16 @@
         <v>1</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>63</v>
@@ -5284,22 +5553,22 @@
         <v>47</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="T24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>284</v>
+        <v>51</v>
       </c>
       <c r="V24" s="6" t="s">
         <v>1</v>
@@ -5308,15 +5577,17 @@
         <v>47</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y24" s="56" t="s">
-        <v>129</v>
+        <v>387</v>
+      </c>
+      <c r="Y24" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="AA24" s="6"/>
+        <v>363</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>434</v>
+      </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="12" t="s">
         <v>53</v>
@@ -5324,40 +5595,46 @@
       <c r="AD24" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE24" s="70"/>
+      <c r="AE24" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="AF24" s="5">
-        <v>45792</v>
-      </c>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="74"/>
+        <v>45601</v>
+      </c>
+      <c r="AG24" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH24" s="64" t="s">
+        <v>1</v>
+      </c>
       <c r="AI24" s="5">
-        <v>45737</v>
+        <v>45534</v>
       </c>
       <c r="AJ24" s="5">
-        <v>45747</v>
+        <v>45534</v>
       </c>
       <c r="AK24" s="5">
-        <v>45789</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="5">
-        <v>45775</v>
+        <v>45534</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>45534</v>
+      </c>
+      <c r="AM24" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN24" s="6" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="31" t="s">
-        <v>2</v>
+      <c r="A25" t="s">
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="C25" s="5">
-        <v>45575</v>
+        <v>45050</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>39</v>
@@ -5366,31 +5643,29 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="5">
-        <v>45672</v>
+        <v>1</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="M25" s="6" t="s">
         <v>152</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="O25" s="8" t="s">
         <v>47</v>
@@ -5402,7 +5677,7 @@
         <v>47</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="S25" s="6" t="s">
         <v>65</v>
@@ -5411,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="V25" s="6" t="s">
         <v>1</v>
@@ -5420,15 +5695,17 @@
         <v>47</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y25" s="56" t="s">
-        <v>129</v>
+        <v>389</v>
+      </c>
+      <c r="Y25" s="46" t="s">
+        <v>85</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA25" s="6"/>
+        <v>399</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="12" t="s">
         <v>53</v>
@@ -5436,40 +5713,46 @@
       <c r="AD25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE25" s="70"/>
+      <c r="AE25" s="60" t="s">
+        <v>1</v>
+      </c>
       <c r="AF25" s="5">
-        <v>45838</v>
-      </c>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="74"/>
+        <v>45152</v>
+      </c>
+      <c r="AG25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH25" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AI25" s="5">
-        <v>45686</v>
+        <v>45520</v>
       </c>
       <c r="AJ25" s="5">
-        <v>45691</v>
+        <v>45523</v>
       </c>
       <c r="AK25" s="5">
-        <v>45831</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="5">
-        <v>45692</v>
+        <v>45611</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM25" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN25" s="6" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C26" s="5">
-        <v>45478</v>
+        <v>45630</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>39</v>
@@ -5478,12 +5761,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I26" s="5">
@@ -5493,35 +5776,37 @@
         <v>43</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N26" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="O26" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="S26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="V26" s="6" t="s">
         <v>1</v>
@@ -5530,15 +5815,17 @@
         <v>47</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y26" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y26" s="46" t="s">
         <v>85</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA26" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="AA26" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="12" t="s">
         <v>53</v>
@@ -5546,43 +5833,43 @@
       <c r="AD26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE26" s="70" t="s">
+      <c r="AE26" s="60" t="s">
         <v>1</v>
       </c>
       <c r="AF26" s="5">
-        <v>45682</v>
-      </c>
-      <c r="AG26" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="74" t="s">
+        <v>45749</v>
+      </c>
+      <c r="AG26" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="64" t="s">
         <v>1</v>
       </c>
       <c r="AI26" s="5">
-        <v>45520</v>
+        <v>45630</v>
       </c>
       <c r="AJ26" s="5">
-        <v>45523</v>
+        <v>45631</v>
       </c>
       <c r="AK26" s="5">
-        <v>45678</v>
+        <v>45721</v>
       </c>
       <c r="AL26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AM26" s="5" t="s">
-        <v>1</v>
+      <c r="AM26" s="5">
+        <v>45631</v>
       </c>
       <c r="AN26" s="6" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="C27" s="5">
         <v>45478</v>
@@ -5597,49 +5884,49 @@
         <v>57</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="37" t="s">
         <v>42</v>
       </c>
       <c r="I27" s="5">
-        <v>45478</v>
+        <v>45693</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="O27" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="S27" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="T27" s="6" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="V27" s="6" t="s">
         <v>68</v>
@@ -5648,51 +5935,41 @@
         <v>47</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y27" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z27" s="6" t="s">
-        <v>346</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
-      <c r="AC27" s="12" t="s">
-        <v>53</v>
+      <c r="AC27" s="58" t="s">
+        <v>146</v>
       </c>
       <c r="AD27" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE27" s="70" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE27" s="60"/>
       <c r="AF27" s="5">
-        <v>45682</v>
-      </c>
-      <c r="AG27" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="5" t="s">
-        <v>1</v>
+        <v>45838</v>
+      </c>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="5">
+        <v>45843</v>
       </c>
       <c r="AJ27" s="5">
-        <v>45526</v>
+        <v>45523</v>
       </c>
       <c r="AK27" s="5">
-        <v>45680</v>
+        <v>45831</v>
       </c>
       <c r="AL27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AM27" s="5" t="s">
-        <v>1</v>
+      <c r="AM27" s="5">
+        <v>45629</v>
       </c>
       <c r="AN27" s="6" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5700,19 +5977,19 @@
         <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="C28" s="5">
-        <v>45722</v>
+        <v>45754</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>1</v>
@@ -5722,87 +5999,79 @@
         <v>1</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="40"/>
       <c r="P28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="42"/>
       <c r="R28" s="6" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W28" s="10" t="s">
-        <v>47</v>
+      <c r="W28" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y28" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z28" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="56"/>
       <c r="AD28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE28" s="70"/>
+      <c r="AE28" s="60"/>
       <c r="AF28" s="5">
-        <v>45787</v>
-      </c>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="74"/>
-      <c r="AI28" s="5">
-        <v>45722</v>
-      </c>
-      <c r="AJ28" s="5">
-        <v>45734</v>
-      </c>
-      <c r="AK28" s="5">
-        <v>45787</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="5">
-        <v>45771</v>
+        <v>45755</v>
+      </c>
+      <c r="AG28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH28" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM28" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN28" s="6" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5810,109 +6079,101 @@
         <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C29" s="5">
-        <v>45720</v>
+        <v>45754</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="I29" s="5">
-        <v>45779</v>
+        <v>1</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>278</v>
+        <v>1</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="O29" s="40"/>
       <c r="P29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="42"/>
       <c r="R29" s="6" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="T29" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="X29" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y29" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z29" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="W29" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="69"/>
+      <c r="AC29" s="56"/>
       <c r="AD29" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AE29" s="18"/>
       <c r="AF29" s="5">
-        <v>45792</v>
-      </c>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="5">
-        <v>45720</v>
-      </c>
-      <c r="AJ29" s="5">
-        <v>45729</v>
-      </c>
-      <c r="AK29" s="5">
-        <v>45783</v>
-      </c>
-      <c r="AL29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="5">
-        <v>45735</v>
+        <v>45755</v>
+      </c>
+      <c r="AG29" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH29" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM29" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN29" s="6" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5920,19 +6181,19 @@
         <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="C30" s="5">
-        <v>45161</v>
+        <v>45754</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>1</v>
@@ -5945,90 +6206,78 @@
         <v>1</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O30" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="O30" s="40"/>
       <c r="P30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="42"/>
       <c r="R30" s="6" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="T30" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="V30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W30" s="10" t="s">
-        <v>47</v>
+      <c r="W30" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z30" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
+      <c r="AC30" s="56"/>
       <c r="AD30" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE30" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE30" s="60"/>
       <c r="AF30" s="5">
-        <v>45601</v>
+        <v>45679</v>
       </c>
       <c r="AG30" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AH30" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="5">
-        <v>45534</v>
-      </c>
-      <c r="AJ30" s="5">
-        <v>45534</v>
-      </c>
-      <c r="AK30" s="5">
-        <v>45534</v>
+      <c r="AH30" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AL30" s="5">
-        <v>45534</v>
+        <v>45824</v>
       </c>
       <c r="AM30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN30" s="6" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6036,19 +6285,19 @@
         <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="C31" s="5">
-        <v>45147</v>
+        <v>45754</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>1</v>
@@ -6061,88 +6310,78 @@
         <v>1</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>195</v>
+        <v>298</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O31" s="40"/>
       <c r="P31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q31" s="42"/>
       <c r="R31" s="6" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="T31" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W31" s="10" t="s">
-        <v>47</v>
+      <c r="W31" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y31" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z31" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="69"/>
+      <c r="AC31" s="56"/>
       <c r="AD31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE31" s="71" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE31" s="18"/>
       <c r="AF31" s="5">
-        <v>45621</v>
-      </c>
-      <c r="AG31" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH31" s="75" t="s">
-        <v>54</v>
+        <v>45682</v>
+      </c>
+      <c r="AG31" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AJ31" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AK31" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL31" s="5">
-        <v>45824</v>
+      <c r="AJ31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AM31" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN31" s="6" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6150,19 +6389,19 @@
         <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="C32" s="5">
-        <v>45643</v>
+        <v>45754</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>1</v>
@@ -6172,91 +6411,79 @@
         <v>1</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O32" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="O32" s="40"/>
       <c r="P32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q32" s="42"/>
       <c r="R32" s="6" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="V32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W32" s="10" t="s">
-        <v>47</v>
+      <c r="W32" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y32" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z32" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="69"/>
+      <c r="AB32" s="69"/>
+      <c r="AC32" s="56"/>
       <c r="AD32" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE32" s="70"/>
+      <c r="AE32" s="60"/>
       <c r="AF32" s="5">
-        <v>45769</v>
-      </c>
-      <c r="AG32" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="5">
-        <v>45644</v>
-      </c>
-      <c r="AJ32" s="5">
-        <v>45663</v>
-      </c>
-      <c r="AK32" s="5">
-        <v>45701</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="5">
-        <v>45665</v>
+        <v>45755</v>
+      </c>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM32" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN32" s="6" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6264,19 +6491,19 @@
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="C33" s="5">
-        <v>45147</v>
+        <v>45754</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>1</v>
@@ -6289,90 +6516,74 @@
         <v>1</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="40"/>
       <c r="P33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="42"/>
       <c r="R33" s="6" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="T33" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W33" s="10" t="s">
-        <v>47</v>
+      <c r="W33" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y33" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z33" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="69"/>
+      <c r="AB33" s="69"/>
+      <c r="AC33" s="56"/>
       <c r="AD33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE33" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE33" s="18"/>
       <c r="AF33" s="5">
-        <v>45793</v>
-      </c>
-      <c r="AG33" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="5">
-        <v>45705</v>
+        <v>45755</v>
+      </c>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI33" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AJ33" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK33" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="5">
-        <v>45784</v>
+      <c r="AK33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM33" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN33" s="6" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6380,19 +6591,19 @@
         <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C34" s="5">
-        <v>45147</v>
+        <v>45754</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>1</v>
@@ -6405,88 +6616,76 @@
         <v>1</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="N34" s="6"/>
-      <c r="O34" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="O34" s="40"/>
       <c r="P34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q34" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="42"/>
       <c r="R34" s="6" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="T34" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W34" s="10" t="s">
-        <v>47</v>
+      <c r="W34" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y34" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z34" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="65" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="69"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="97"/>
       <c r="AD34" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE34" s="70" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE34" s="60"/>
       <c r="AF34" s="5">
-        <v>45793</v>
-      </c>
-      <c r="AG34" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="5">
-        <v>45705</v>
+        <v>45755</v>
+      </c>
+      <c r="AG34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH34" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI34" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AJ34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK34" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM34" s="5">
-        <v>45784</v>
+      <c r="AK34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM34" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN34" s="6" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6494,19 +6693,19 @@
         <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C35" s="5">
-        <v>45147</v>
+        <v>45754</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>1</v>
@@ -6519,88 +6718,76 @@
         <v>1</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="O35" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="O35" s="40"/>
       <c r="P35" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="42"/>
       <c r="R35" s="6" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="T35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V35" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W35" s="10" t="s">
-        <v>47</v>
+      <c r="W35" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y35" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z35" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="69"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="69"/>
+      <c r="AC35" s="56"/>
       <c r="AD35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE35" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE35" s="18"/>
       <c r="AF35" s="5">
-        <v>45793</v>
-      </c>
-      <c r="AG35" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="5">
-        <v>45705</v>
+        <v>45755</v>
+      </c>
+      <c r="AG35" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH35" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI35" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AJ35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK35" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM35" s="5">
-        <v>45784</v>
+      <c r="AK35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM35" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN35" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6608,19 +6795,19 @@
         <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C36" s="5">
-        <v>45147</v>
+        <v>45754</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>1</v>
@@ -6633,90 +6820,78 @@
         <v>1</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O36" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="O36" s="40"/>
       <c r="P36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="42"/>
       <c r="R36" s="6" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>198</v>
+        <v>289</v>
       </c>
       <c r="T36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W36" s="10" t="s">
-        <v>47</v>
+      <c r="W36" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y36" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z36" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="82"/>
+      <c r="Z36" s="69"/>
+      <c r="AA36" s="69"/>
+      <c r="AB36" s="69"/>
+      <c r="AC36" s="56"/>
       <c r="AD36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE36" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE36" s="18"/>
       <c r="AF36" s="5">
-        <v>45793</v>
-      </c>
-      <c r="AG36" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="5">
-        <v>45705</v>
+        <v>45755</v>
+      </c>
+      <c r="AG36" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH36" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AJ36" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK36" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM36" s="5">
-        <v>45784</v>
+      <c r="AK36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM36" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN36" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -6724,19 +6899,19 @@
         <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>225</v>
+        <v>312</v>
       </c>
       <c r="C37" s="5">
-        <v>45050</v>
+        <v>45754</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>1</v>
@@ -6749,81 +6924,67 @@
         <v>1</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>226</v>
+        <v>1</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N37" s="6"/>
+      <c r="O37" s="40"/>
       <c r="P37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q37" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="42"/>
       <c r="R37" s="6" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="T37" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="V37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W37" s="10" t="s">
-        <v>47</v>
+      <c r="W37" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X37" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="Y37" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z37" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y37" s="82"/>
+      <c r="Z37" s="69"/>
+      <c r="AA37" s="69"/>
+      <c r="AB37" s="69"/>
+      <c r="AC37" s="56"/>
       <c r="AD37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE37" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE37" s="18"/>
       <c r="AF37" s="5">
-        <v>45152</v>
-      </c>
-      <c r="AG37" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH37" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI37" s="5">
-        <v>45520</v>
-      </c>
-      <c r="AJ37" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AK37" s="5">
-        <v>45611</v>
+        <v>45755</v>
+      </c>
+      <c r="AG37" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH37" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AL37" s="5">
         <v>45824</v>
@@ -6832,230 +6993,204 @@
         <v>1</v>
       </c>
       <c r="AN37" s="6" t="s">
-        <v>219</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
-        <v>2</v>
+      <c r="A38" t="s">
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="C38" s="5">
-        <v>45630</v>
+        <v>45754</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="5">
-        <v>45672</v>
+        <v>1</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="N38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O38" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="O38" s="40"/>
       <c r="P38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q38" s="42"/>
       <c r="R38" s="6" t="s">
-        <v>107</v>
+        <v>316</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="T38" s="6" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U38" s="6" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="V38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W38" s="10" t="s">
-        <v>47</v>
+      <c r="W38" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X38" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y38" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z38" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="12" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y38" s="82"/>
+      <c r="Z38" s="69"/>
+      <c r="AA38" s="69"/>
+      <c r="AB38" s="69"/>
+      <c r="AC38" s="56"/>
       <c r="AD38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE38" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE38" s="18"/>
       <c r="AF38" s="5">
-        <v>45749</v>
-      </c>
-      <c r="AG38" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="5">
-        <v>45630</v>
-      </c>
-      <c r="AJ38" s="5">
-        <v>45631</v>
-      </c>
-      <c r="AK38" s="5">
-        <v>45721</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM38" s="5">
-        <v>45631</v>
+        <v>45755</v>
+      </c>
+      <c r="AG38" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH38" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM38" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN38" s="6" t="s">
-        <v>109</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
-        <v>2</v>
+      <c r="A39" t="s">
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>318</v>
       </c>
       <c r="C39" s="5">
-        <v>45478</v>
+        <v>45754</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="5">
-        <v>45694</v>
+        <v>1</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>72</v>
+        <v>318</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="40"/>
       <c r="P39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q39" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="42"/>
       <c r="R39" s="6" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="W39" s="10" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="W39" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X39" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y39" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="66"/>
+        <v>1</v>
+      </c>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="69"/>
+      <c r="AA39" s="69"/>
+      <c r="AB39" s="69"/>
+      <c r="AC39" s="56"/>
       <c r="AD39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE39" s="71" t="s">
-        <v>54</v>
-      </c>
+      <c r="AE39" s="18"/>
       <c r="AF39" s="5">
-        <v>45645</v>
-      </c>
-      <c r="AG39" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH39" s="75" t="s">
+        <v>45755</v>
+      </c>
+      <c r="AG39" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH39" s="65" t="s">
         <v>54</v>
       </c>
       <c r="AI39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AJ39" s="5">
-        <v>45526</v>
-      </c>
-      <c r="AK39" s="5">
-        <v>45529</v>
+      <c r="AJ39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AL39" s="5">
         <v>45824</v>
@@ -7064,21 +7199,21 @@
         <v>1</v>
       </c>
       <c r="AN39" s="6" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="31" t="s">
-        <v>2</v>
+      <c r="A40" t="s">
+        <v>63</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>320</v>
       </c>
       <c r="C40" s="5">
-        <v>45720</v>
+        <v>45754</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>1</v>
@@ -7087,13 +7222,11 @@
         <v>119</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="5">
-        <v>45720</v>
+        <v>1</v>
+      </c>
+      <c r="H40" s="70"/>
+      <c r="I40" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>1</v>
@@ -7102,21 +7235,21 @@
         <v>1</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="N40" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O40" s="43"/>
+      <c r="O40" s="40"/>
       <c r="P40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Q40" s="45"/>
+      <c r="Q40" s="42"/>
       <c r="R40" s="6" t="s">
-        <v>122</v>
+        <v>321</v>
       </c>
       <c r="S40" s="6" t="s">
         <v>65</v>
@@ -7130,28 +7263,30 @@
       <c r="V40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W40" s="47" t="s">
+      <c r="W40" s="44" t="s">
         <v>1</v>
       </c>
       <c r="X40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="66"/>
+      <c r="Y40" s="49"/>
+      <c r="Z40" s="69"/>
+      <c r="AA40" s="69"/>
+      <c r="AB40" s="69"/>
+      <c r="AC40" s="56"/>
       <c r="AD40" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AE40" s="18"/>
       <c r="AF40" s="5">
-        <v>45679</v>
-      </c>
-      <c r="AG40" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="20"/>
+        <v>45755</v>
+      </c>
+      <c r="AG40" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH40" s="65" t="s">
+        <v>54</v>
+      </c>
       <c r="AI40" s="5" t="s">
         <v>1</v>
       </c>
@@ -7161,70 +7296,62 @@
       <c r="AK40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AL40" s="5" t="s">
-        <v>1</v>
+      <c r="AL40" s="5">
+        <v>45824</v>
       </c>
       <c r="AM40" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN40" s="6" t="s">
-        <v>123</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="31" t="s">
-        <v>2</v>
+      <c r="A41" t="s">
+        <v>63</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="C41" s="5">
-        <v>45478</v>
+        <v>45754</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="H41" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="5">
-        <v>45693</v>
+        <v>1</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="N41" s="6"/>
+      <c r="O41" s="40"/>
       <c r="P41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="42"/>
       <c r="R41" s="6" t="s">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="S41" s="6" t="s">
         <v>65</v>
@@ -7233,50 +7360,50 @@
         <v>1</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W41" s="10" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="W41" s="44" t="s">
+        <v>1</v>
       </c>
       <c r="X41" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="68" t="s">
-        <v>146</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="49"/>
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="69"/>
+      <c r="AB41" s="69"/>
+      <c r="AC41" s="56"/>
       <c r="AD41" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AE41" s="18"/>
       <c r="AF41" s="5">
-        <v>45838</v>
+        <v>45755</v>
       </c>
       <c r="AG41" s="19"/>
-      <c r="AH41" s="20"/>
-      <c r="AI41" s="5">
-        <v>45843</v>
-      </c>
-      <c r="AJ41" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AK41" s="5">
-        <v>45831</v>
+      <c r="AH41" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AL41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AM41" s="5">
-        <v>45629</v>
+      <c r="AM41" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AN41" s="6" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7284,10 +7411,10 @@
         <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
       <c r="C42" s="5">
-        <v>45113</v>
+        <v>45649</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>39</v>
@@ -7296,283 +7423,294 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="5">
-        <v>45831</v>
+        <v>1</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J42" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>181</v>
+        <v>326</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>182</v>
+        <v>327</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>184</v>
+        <v>329</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="U42" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W42" s="10" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="W42" s="92" t="s">
+        <v>331</v>
       </c>
       <c r="X42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y42" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="66" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y42" s="49"/>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="69"/>
+      <c r="AC42" s="56"/>
       <c r="AD42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE42" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="AE42" s="18"/>
       <c r="AF42" s="5">
-        <v>45518</v>
-      </c>
-      <c r="AG42" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH42" s="75" t="s">
-        <v>54</v>
-      </c>
+        <v>45838</v>
+      </c>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="20"/>
       <c r="AI42" s="5">
-        <v>45520</v>
+        <v>45649</v>
       </c>
       <c r="AJ42" s="5">
-        <v>45523</v>
-      </c>
-      <c r="AK42" s="5">
-        <v>45611</v>
-      </c>
-      <c r="AL42" s="5">
-        <v>45824</v>
+        <v>45665</v>
+      </c>
+      <c r="AK42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AM42" s="5">
-        <v>45680</v>
+        <v>45666</v>
       </c>
       <c r="AN42" s="6" t="s">
-        <v>186</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C43" s="5">
-        <v>45754</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="S43" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="T43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="U43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="V43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W43" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="X43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="5">
-        <v>45755</v>
-      </c>
-      <c r="AG43" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH43" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL43" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN43" s="6" t="s">
-        <v>291</v>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>1</v>
+      </c>
+      <c r="S43" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>1</v>
+      </c>
+      <c r="W43" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="X43" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="AG43" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="AJ43" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="AK43" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL43" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="AM43" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+      <c r="A44" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45478</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="5">
+        <v>45694</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" s="5">
-        <v>45754</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="21"/>
+      <c r="O44" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="Q44" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R44" s="6" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W44" s="23" t="s">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="W44" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
+        <v>367</v>
+      </c>
+      <c r="Y44" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE44" s="18"/>
+      <c r="AE44" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF44" s="5">
-        <v>45755</v>
+        <v>45645</v>
       </c>
       <c r="AG44" s="15" t="s">
         <v>54</v>
@@ -7583,11 +7721,11 @@
       <c r="AI44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AJ44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="5" t="s">
-        <v>1</v>
+      <c r="AJ44" s="5">
+        <v>45526</v>
+      </c>
+      <c r="AK44" s="5">
+        <v>45529</v>
       </c>
       <c r="AL44" s="5">
         <v>45824</v>
@@ -7596,21 +7734,21 @@
         <v>1</v>
       </c>
       <c r="AN44" s="6" t="s">
-        <v>291</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>63</v>
+      <c r="A45" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
       <c r="C45" s="5">
-        <v>45754</v>
+        <v>45720</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>1</v>
@@ -7619,11 +7757,13 @@
         <v>119</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="5" t="s">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="5">
+        <v>45720</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>1</v>
@@ -7632,10 +7772,10 @@
         <v>1</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>294</v>
+        <v>121</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="N45" s="6" t="s">
         <v>63</v>
@@ -7646,10 +7786,10 @@
       </c>
       <c r="Q45" s="22"/>
       <c r="R45" s="6" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>296</v>
+        <v>65</v>
       </c>
       <c r="T45" s="6" t="s">
         <v>1</v>
@@ -7667,9 +7807,9 @@
         <v>1</v>
       </c>
       <c r="Y45" s="24"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
+      <c r="Z45" s="72"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="72"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="13" t="s">
         <v>54</v>
@@ -7678,12 +7818,10 @@
       <c r="AF45" s="5">
         <v>45679</v>
       </c>
-      <c r="AG45" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH45" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="AG45" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="64"/>
       <c r="AI45" s="5" t="s">
         <v>1</v>
       </c>
@@ -7693,14 +7831,14 @@
       <c r="AK45" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AL45" s="5">
-        <v>45824</v>
+      <c r="AL45" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="AM45" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AN45" s="6" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7708,35 +7846,37 @@
         <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="C46" s="5">
-        <v>45754</v>
+        <v>45113</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="5" t="s">
-        <v>1</v>
+        <v>180</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>45831</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>65</v>
@@ -7744,67 +7884,77 @@
       <c r="N46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O46" s="21"/>
+      <c r="O46" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="22"/>
+        <v>183</v>
+      </c>
+      <c r="Q46" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R46" s="6" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W46" s="23" t="s">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W46" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X46" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="17"/>
+      <c r="Y46" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z46" s="72"/>
+      <c r="AA46" s="72"/>
+      <c r="AB46" s="72"/>
+      <c r="AC46" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="AD46" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE46" s="18"/>
+      <c r="AE46" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AF46" s="5">
-        <v>45682</v>
-      </c>
-      <c r="AG46" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL46" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="5" t="s">
-        <v>1</v>
+        <v>45518</v>
+      </c>
+      <c r="AG46" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH46" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI46" s="5">
+        <v>45520</v>
+      </c>
+      <c r="AJ46" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK46" s="5">
+        <v>45611</v>
+      </c>
+      <c r="AL46" s="5">
+        <v>45824</v>
+      </c>
+      <c r="AM46" s="5">
+        <v>45680</v>
       </c>
       <c r="AN46" s="6" t="s">
-        <v>299</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7812,19 +7962,19 @@
         <v>63</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="C47" s="5">
-        <v>45754</v>
+        <v>45161</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>1</v>
@@ -7834,70 +7984,84 @@
         <v>1</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O47" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="N47" s="6"/>
+      <c r="O47" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q47" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R47" s="6" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="V47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W47" s="23" t="s">
-        <v>1</v>
+      <c r="W47" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X47" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="17"/>
+        <v>386</v>
+      </c>
+      <c r="Y47" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z47" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="AA47" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD47" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE47" s="18"/>
+      <c r="AE47" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF47" s="5">
-        <v>45755</v>
-      </c>
-      <c r="AG47" s="19"/>
+        <v>45601</v>
+      </c>
+      <c r="AG47" s="63" t="s">
+        <v>54</v>
+      </c>
       <c r="AH47" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AI47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK47" s="5" t="s">
-        <v>1</v>
+      <c r="AI47" s="5">
+        <v>45518</v>
+      </c>
+      <c r="AJ47" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK47" s="5">
+        <v>45548</v>
       </c>
       <c r="AL47" s="5">
         <v>45824</v>
@@ -7906,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="AN47" s="6" t="s">
-        <v>302</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -7914,19 +8078,19 @@
         <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="C48" s="5">
-        <v>45754</v>
+        <v>45487</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>1</v>
@@ -7936,68 +8100,86 @@
         <v>1</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N48" s="6"/>
-      <c r="O48" s="21"/>
+        <v>243</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O48" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q48" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R48" s="6" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="V48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W48" s="23" t="s">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="W48" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="17"/>
+        <v>392</v>
+      </c>
+      <c r="Y48" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z48" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA48" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD48" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE48" s="18"/>
+      <c r="AE48" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF48" s="5">
-        <v>45755</v>
-      </c>
-      <c r="AG48" s="19"/>
+        <v>45672</v>
+      </c>
+      <c r="AG48" s="63" t="s">
+        <v>54</v>
+      </c>
       <c r="AH48" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AI48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="5" t="s">
-        <v>1</v>
+      <c r="AI48" s="5">
+        <v>45520</v>
+      </c>
+      <c r="AJ48" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK48" s="5">
+        <v>45560</v>
       </c>
       <c r="AL48" s="5">
         <v>45824</v>
@@ -8006,85 +8188,101 @@
         <v>1</v>
       </c>
       <c r="AN48" s="6" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>63</v>
+      <c r="A49" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="C49" s="5">
-        <v>45754</v>
+        <v>45160</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="5" t="s">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="5">
+        <v>45672</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="N49" s="6"/>
-      <c r="O49" s="21"/>
+      <c r="O49" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R49" s="6" t="s">
-        <v>306</v>
+        <v>49</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="T49" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="V49" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W49" s="23" t="s">
-        <v>1</v>
+      <c r="W49" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="17"/>
+        <v>365</v>
+      </c>
+      <c r="Y49" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z49" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA49" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD49" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE49" s="18"/>
+      <c r="AE49" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF49" s="5">
-        <v>45755</v>
+        <v>45611</v>
       </c>
       <c r="AG49" s="15" t="s">
         <v>54</v>
@@ -8092,14 +8290,14 @@
       <c r="AH49" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AI49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ49" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK49" s="5" t="s">
-        <v>1</v>
+      <c r="AI49" s="5">
+        <v>45520</v>
+      </c>
+      <c r="AJ49" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK49" s="5">
+        <v>45548</v>
       </c>
       <c r="AL49" s="5">
         <v>45824</v>
@@ -8108,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="AN49" s="6" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8116,19 +8314,19 @@
         <v>63</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="C50" s="5">
-        <v>45754</v>
+        <v>45257</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>1</v>
@@ -8141,52 +8339,68 @@
         <v>1</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N50" s="6"/>
-      <c r="O50" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O50" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q50" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R50" s="6" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="T50" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="V50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W50" s="23" t="s">
-        <v>1</v>
+      <c r="W50" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X50" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="17"/>
+        <v>388</v>
+      </c>
+      <c r="Y50" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z50" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA50" s="66" t="s">
+        <v>413</v>
+      </c>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD50" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE50" s="18"/>
+      <c r="AE50" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF50" s="5">
-        <v>45755</v>
+        <v>45601</v>
       </c>
       <c r="AG50" s="15" t="s">
         <v>54</v>
@@ -8194,14 +8408,14 @@
       <c r="AH50" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AI50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK50" s="5" t="s">
-        <v>1</v>
+      <c r="AI50" s="5">
+        <v>45520</v>
+      </c>
+      <c r="AJ50" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK50" s="5">
+        <v>45523</v>
       </c>
       <c r="AL50" s="5">
         <v>45824</v>
@@ -8210,87 +8424,101 @@
         <v>1</v>
       </c>
       <c r="AN50" s="6" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>63</v>
+      <c r="A51" s="29" t="s">
+        <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="C51" s="5">
-        <v>45754</v>
+        <v>45178</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="5" t="s">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="5">
+        <v>45672</v>
       </c>
       <c r="J51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O51" s="21"/>
+      <c r="O51" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q51" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R51" s="6" t="s">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="T51" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="V51" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W51" s="23" t="s">
-        <v>1</v>
+      <c r="W51" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X51" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="17"/>
+        <v>373</v>
+      </c>
+      <c r="Y51" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z51" s="95" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA51" s="95"/>
+      <c r="AB51" s="95"/>
+      <c r="AC51" s="96" t="s">
+        <v>117</v>
+      </c>
       <c r="AD51" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE51" s="18"/>
+      <c r="AE51" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AF51" s="5">
-        <v>45755</v>
+        <v>45621</v>
       </c>
       <c r="AG51" s="15" t="s">
         <v>54</v>
@@ -8298,14 +8526,14 @@
       <c r="AH51" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AI51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ51" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK51" s="5" t="s">
-        <v>1</v>
+      <c r="AI51" s="5">
+        <v>45520</v>
+      </c>
+      <c r="AJ51" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK51" s="5">
+        <v>45530</v>
       </c>
       <c r="AL51" s="5">
         <v>45824</v>
@@ -8314,7 +8542,7 @@
         <v>1</v>
       </c>
       <c r="AN51" s="6" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8322,19 +8550,19 @@
         <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="C52" s="5">
-        <v>45754</v>
+        <v>45183</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>1</v>
@@ -8347,52 +8575,66 @@
         <v>1</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N52" s="6"/>
-      <c r="O52" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O52" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q52" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R52" s="6" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="T52" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U52" s="6" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="V52" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W52" s="23" t="s">
-        <v>1</v>
+      <c r="W52" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="17"/>
+        <v>394</v>
+      </c>
+      <c r="Y52" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z52" s="95" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="96" t="s">
+        <v>117</v>
+      </c>
       <c r="AD52" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE52" s="18"/>
+      <c r="AE52" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF52" s="5">
-        <v>45755</v>
+        <v>45621</v>
       </c>
       <c r="AG52" s="15" t="s">
         <v>54</v>
@@ -8400,14 +8642,14 @@
       <c r="AH52" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AI52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK52" s="5" t="s">
-        <v>1</v>
+      <c r="AI52" s="5">
+        <v>45520</v>
+      </c>
+      <c r="AJ52" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK52" s="5">
+        <v>45530</v>
       </c>
       <c r="AL52" s="5">
         <v>45824</v>
@@ -8416,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="AN52" s="6" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8424,19 +8666,19 @@
         <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>315</v>
+        <v>193</v>
       </c>
       <c r="C53" s="5">
-        <v>45754</v>
+        <v>45147</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>1</v>
@@ -8449,54 +8691,64 @@
         <v>1</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>315</v>
+        <v>195</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O53" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q53" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R53" s="6" t="s">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c r="T53" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U53" s="6" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="V53" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W53" s="23" t="s">
-        <v>1</v>
+      <c r="W53" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X53" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="17"/>
+        <v>383</v>
+      </c>
+      <c r="Y53" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z53" s="95" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA53" s="95"/>
+      <c r="AB53" s="95"/>
+      <c r="AC53" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD53" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE53" s="18"/>
+      <c r="AE53" s="61" t="s">
+        <v>54</v>
+      </c>
       <c r="AF53" s="5">
-        <v>45755</v>
+        <v>45621</v>
       </c>
       <c r="AG53" s="15" t="s">
         <v>54</v>
@@ -8507,11 +8759,11 @@
       <c r="AI53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AJ53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK53" s="5" t="s">
-        <v>1</v>
+      <c r="AJ53" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AK53" s="5">
+        <v>45523</v>
       </c>
       <c r="AL53" s="5">
         <v>45824</v>
@@ -8520,7 +8772,7 @@
         <v>1</v>
       </c>
       <c r="AN53" s="6" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8528,19 +8780,19 @@
         <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C54" s="5">
-        <v>45754</v>
+        <v>45643</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>1</v>
@@ -8550,79 +8802,91 @@
         <v>1</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="N54" s="6"/>
-      <c r="O54" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O54" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P54" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="Q54" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R54" s="6" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="U54" s="6" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="V54" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W54" s="23" t="s">
-        <v>1</v>
+      <c r="W54" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X54" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="17"/>
+        <v>391</v>
+      </c>
+      <c r="Y54" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z54" s="95" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD54" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AE54" s="18"/>
       <c r="AF54" s="5">
-        <v>45755</v>
-      </c>
-      <c r="AG54" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH54" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL54" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM54" s="5" t="s">
-        <v>1</v>
+        <v>45769</v>
+      </c>
+      <c r="AG54" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="5">
+        <v>45644</v>
+      </c>
+      <c r="AJ54" s="5">
+        <v>45663</v>
+      </c>
+      <c r="AK54" s="5">
+        <v>45701</v>
+      </c>
+      <c r="AL54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM54" s="5">
+        <v>45665</v>
       </c>
       <c r="AN54" s="6" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8630,19 +8894,19 @@
         <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="C55" s="5">
-        <v>45754</v>
+        <v>45147</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>1</v>
@@ -8655,78 +8919,90 @@
         <v>1</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="N55" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O55" s="21"/>
+      <c r="O55" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q55" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R55" s="6" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="T55" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="V55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W55" s="23" t="s">
-        <v>1</v>
+      <c r="W55" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="17"/>
+        <v>383</v>
+      </c>
+      <c r="Y55" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z55" s="95" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA55" s="95"/>
+      <c r="AB55" s="95"/>
+      <c r="AC55" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD55" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE55" s="18"/>
+      <c r="AE55" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AF55" s="5">
-        <v>45755</v>
-      </c>
-      <c r="AG55" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI55" s="5" t="s">
-        <v>1</v>
+        <v>45793</v>
+      </c>
+      <c r="AG55" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="5">
+        <v>45705</v>
       </c>
       <c r="AJ55" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL55" s="5">
-        <v>45824</v>
-      </c>
-      <c r="AM55" s="5" t="s">
-        <v>1</v>
+      <c r="AK55" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AL55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM55" s="5">
+        <v>45784</v>
       </c>
       <c r="AN55" s="6" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8734,19 +9010,19 @@
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="C56" s="5">
-        <v>45754</v>
+        <v>45147</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>1</v>
@@ -8759,74 +9035,88 @@
         <v>1</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="N56" s="6"/>
-      <c r="O56" s="21"/>
+      <c r="O56" s="41" t="s">
+        <v>47</v>
+      </c>
       <c r="P56" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="Q56" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="R56" s="6" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="T56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="U56" s="6" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="V56" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W56" s="23" t="s">
-        <v>1</v>
+      <c r="W56" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="X56" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="17"/>
+        <v>383</v>
+      </c>
+      <c r="Y56" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z56" s="95" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA56" s="95"/>
+      <c r="AB56" s="95"/>
+      <c r="AC56" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD56" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE56" s="18"/>
+      <c r="AE56" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AF56" s="5">
-        <v>45755</v>
-      </c>
-      <c r="AG56" s="19"/>
+        <v>45793</v>
+      </c>
+      <c r="AG56" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="AH56" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AI56" s="5" t="s">
-        <v>1</v>
+      <c r="AI56" s="5">
+        <v>45705</v>
       </c>
       <c r="AJ56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AK56" s="5" t="s">
-        <v>1</v>
+      <c r="AK56" s="5">
+        <v>45523</v>
       </c>
       <c r="AL56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AM56" s="5" t="s">
-        <v>1</v>
+      <c r="AM56" s="5">
+        <v>45784</v>
       </c>
       <c r="AN56" s="6" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:40" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8834,10 +9124,10 @@
         <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="C57" s="5">
-        <v>45649</v>
+        <v>45147</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>39</v>
@@ -8846,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>1</v>
@@ -8856,202 +9146,220 @@
         <v>1</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>143</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N57" s="6"/>
       <c r="O57" s="8" t="s">
         <v>47</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="Q57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="V57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W57" s="29" t="s">
-        <v>331</v>
+      <c r="W57" s="79" t="s">
+        <v>47</v>
       </c>
       <c r="X57" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="17"/>
+        <v>383</v>
+      </c>
+      <c r="Y57" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z57" s="95" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA57" s="95"/>
+      <c r="AB57" s="95"/>
+      <c r="AC57" s="57" t="s">
+        <v>53</v>
+      </c>
       <c r="AD57" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE57" s="18"/>
+      <c r="AE57" s="18" t="s">
+        <v>1</v>
+      </c>
       <c r="AF57" s="5">
-        <v>45838</v>
-      </c>
-      <c r="AG57" s="19"/>
-      <c r="AH57" s="20"/>
+        <v>45793</v>
+      </c>
+      <c r="AG57" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="AI57" s="5">
-        <v>45649</v>
-      </c>
-      <c r="AJ57" s="5">
-        <v>45665</v>
-      </c>
-      <c r="AK57" s="5" t="s">
-        <v>1</v>
+        <v>45705</v>
+      </c>
+      <c r="AJ57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK57" s="5">
+        <v>45523</v>
       </c>
       <c r="AL57" s="5" t="s">
         <v>1</v>
       </c>
       <c r="AM57" s="5">
-        <v>45666</v>
+        <v>45784</v>
       </c>
       <c r="AN57" s="6" t="s">
-        <v>332</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:40" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>1</v>
-      </c>
-      <c r="M58" t="s">
-        <v>1</v>
-      </c>
-      <c r="N58" t="s">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
-        <v>1</v>
-      </c>
-      <c r="P58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>1</v>
-      </c>
-      <c r="R58" t="s">
-        <v>1</v>
-      </c>
-      <c r="S58" t="s">
-        <v>1</v>
-      </c>
-      <c r="T58" t="s">
-        <v>1</v>
-      </c>
-      <c r="U58" t="s">
-        <v>1</v>
-      </c>
-      <c r="V58" t="s">
-        <v>1</v>
-      </c>
-      <c r="W58" t="s">
-        <v>1</v>
-      </c>
-      <c r="X58" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF58" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="AJ58" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="AK58" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="AL58" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="AM58" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="AN58" t="s">
-        <v>1</v>
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45147</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="74"/>
+      <c r="I58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O58" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q58" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="T58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U58" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="V58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W58" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="X58" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y58" s="98" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z58" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA58" s="99"/>
+      <c r="AB58" s="99"/>
+      <c r="AC58" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD58" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE58" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="5">
+        <v>45793</v>
+      </c>
+      <c r="AG58" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="5">
+        <v>45705</v>
+      </c>
+      <c r="AJ58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK58" s="5">
+        <v>45523</v>
+      </c>
+      <c r="AL58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM58" s="5">
+        <v>45784</v>
+      </c>
+      <c r="AN58" s="6" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AN57" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN58">
-      <sortCondition ref="Z2:Z57"/>
+      <sortCondition descending="1" sortBy="cellColor" ref="Z3:Z58" dxfId="3"/>
+      <sortCondition descending="1" sortBy="fontColor" ref="Z3:Z58" dxfId="2"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="X29" r:id="rId1" xr:uid="{81B556CA-020B-4523-B103-0BC676775C24}"/>
+    <hyperlink ref="X23" r:id="rId1" xr:uid="{81B556CA-020B-4523-B103-0BC676775C24}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/CDE_ID_detective_revamp/ReRun/Data_Dictionary_Tracker_as_of_2025-07-08.xlsx
+++ b/CDE_ID_detective_revamp/ReRun/Data_Dictionary_Tracker_as_of_2025-07-08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\ReRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08CE5C-7DFA-4BB5-A74E-361BD5A1B094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7CF2A-E448-4FFD-AC33-2D5F0526340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37635" yWindow="9345" windowWidth="21660" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary track" sheetId="1" r:id="rId1"/>
@@ -1343,7 +1343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -1565,6 +1565,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -2363,9 +2369,6 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2376,35 +2379,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -2428,30 +2430,34 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -2477,114 +2483,6 @@
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2919,10 +2817,10 @@
   <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="23" ySplit="2" topLeftCell="Z18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="23" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
+      <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3164,13 +3062,13 @@
       <c r="Y3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="69" t="s">
+      <c r="Z3" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AA3" s="69" t="s">
+      <c r="AA3" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AB3" s="69"/>
+      <c r="AB3" s="6"/>
       <c r="AC3" s="12" t="s">
         <v>53</v>
       </c>
@@ -3512,13 +3410,13 @@
       <c r="Y6" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="Z6" s="69" t="s">
+      <c r="Z6" s="6" t="s">
         <v>357</v>
       </c>
       <c r="AA6" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="AB6" s="69"/>
+      <c r="AB6" s="6"/>
       <c r="AC6" s="12" t="s">
         <v>53</v>
       </c>
@@ -3970,13 +3868,13 @@
       <c r="Y10" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="Z10" s="69" t="s">
+      <c r="Z10" s="6" t="s">
         <v>348</v>
       </c>
       <c r="AA10" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="AB10" s="69"/>
+      <c r="AB10" s="6"/>
       <c r="AC10" s="12" t="s">
         <v>53</v>
       </c>
@@ -4203,7 +4101,7 @@
       <c r="Z12" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="AA12" s="69" t="s">
+      <c r="AA12" s="6" t="s">
         <v>420</v>
       </c>
       <c r="AB12" s="31"/>
@@ -4548,13 +4446,13 @@
       <c r="Y15" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="Z15" s="69" t="s">
+      <c r="Z15" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AA15" s="69" t="s">
+      <c r="AA15" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="AB15" s="69"/>
+      <c r="AB15" s="6"/>
       <c r="AC15" s="12" t="s">
         <v>53</v>
       </c>
@@ -5008,13 +4906,13 @@
       <c r="Y19" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="Z19" s="69" t="s">
+      <c r="Z19" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="AA19" s="69" t="s">
+      <c r="AA19" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="AB19" s="69"/>
+      <c r="AB19" s="6"/>
       <c r="AC19" s="12" t="s">
         <v>53</v>
       </c>
@@ -5470,7 +5368,7 @@
       <c r="Y23" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="Z23" s="103" t="s">
+      <c r="Z23" s="101" t="s">
         <v>404</v>
       </c>
       <c r="AA23" s="6" t="s">
@@ -5937,7 +5835,7 @@
       <c r="X27" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="Y27" s="71"/>
+      <c r="Y27" s="70"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
@@ -6037,10 +5935,10 @@
       <c r="X28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
       <c r="AC28" s="56"/>
       <c r="AD28" s="13" t="s">
         <v>54</v>
@@ -6139,10 +6037,10 @@
       <c r="X29" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
+      <c r="Y29" s="91"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
       <c r="AC29" s="56"/>
       <c r="AD29" s="13" t="s">
         <v>54</v>
@@ -6243,10 +6141,10 @@
       <c r="X30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
       <c r="AC30" s="56"/>
       <c r="AD30" s="13" t="s">
         <v>54</v>
@@ -6347,10 +6245,10 @@
       <c r="X31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
       <c r="AC31" s="56"/>
       <c r="AD31" s="13" t="s">
         <v>54</v>
@@ -6451,10 +6349,10 @@
       <c r="X32" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
       <c r="AC32" s="56"/>
       <c r="AD32" s="13" t="s">
         <v>54</v>
@@ -6551,10 +6449,10 @@
       <c r="X33" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
       <c r="AC33" s="56"/>
       <c r="AD33" s="13" t="s">
         <v>54</v>
@@ -6651,11 +6549,11 @@
       <c r="X34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="97"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="95"/>
       <c r="AD34" s="13" t="s">
         <v>54</v>
       </c>
@@ -6754,9 +6652,9 @@
         <v>1</v>
       </c>
       <c r="Y35" s="49"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
       <c r="AC35" s="56"/>
       <c r="AD35" s="13" t="s">
         <v>54</v>
@@ -6857,10 +6755,10 @@
       <c r="X36" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
       <c r="AC36" s="56"/>
       <c r="AD36" s="13" t="s">
         <v>54</v>
@@ -6959,10 +6857,10 @@
       <c r="X37" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y37" s="82"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
+      <c r="Y37" s="81"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
       <c r="AC37" s="56"/>
       <c r="AD37" s="13" t="s">
         <v>54</v>
@@ -7063,10 +6961,10 @@
       <c r="X38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
       <c r="AC38" s="56"/>
       <c r="AD38" s="13" t="s">
         <v>54</v>
@@ -7165,10 +7063,10 @@
       <c r="X39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
       <c r="AC39" s="56"/>
       <c r="AD39" s="13" t="s">
         <v>54</v>
@@ -7224,7 +7122,7 @@
       <c r="G40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="70"/>
+      <c r="H40" s="69"/>
       <c r="I40" s="5" t="s">
         <v>1</v>
       </c>
@@ -7270,9 +7168,9 @@
         <v>1</v>
       </c>
       <c r="Y40" s="49"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="69"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
       <c r="AC40" s="56"/>
       <c r="AD40" s="13" t="s">
         <v>54</v>
@@ -7372,9 +7270,9 @@
         <v>1</v>
       </c>
       <c r="Y41" s="49"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
       <c r="AC41" s="56"/>
       <c r="AD41" s="13" t="s">
         <v>54</v>
@@ -7471,16 +7369,16 @@
       <c r="V42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W42" s="92" t="s">
+      <c r="W42" s="90" t="s">
         <v>331</v>
       </c>
       <c r="X42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Y42" s="49"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="69"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
       <c r="AC42" s="56"/>
       <c r="AD42" s="13" t="s">
         <v>54</v>
@@ -7529,7 +7427,7 @@
       <c r="G43" t="s">
         <v>1</v>
       </c>
-      <c r="H43" s="73" t="s">
+      <c r="H43" s="72" t="s">
         <v>1</v>
       </c>
       <c r="I43" s="26" t="s">
@@ -7550,13 +7448,13 @@
       <c r="N43" t="s">
         <v>1</v>
       </c>
-      <c r="O43" s="75" t="s">
+      <c r="O43" s="74" t="s">
         <v>1</v>
       </c>
       <c r="P43" t="s">
         <v>1</v>
       </c>
-      <c r="Q43" s="77" t="s">
+      <c r="Q43" s="76" t="s">
         <v>1</v>
       </c>
       <c r="R43" t="s">
@@ -7574,34 +7472,34 @@
       <c r="V43" t="s">
         <v>1</v>
       </c>
-      <c r="W43" s="80" t="s">
+      <c r="W43" s="79" t="s">
         <v>1</v>
       </c>
       <c r="X43" t="s">
         <v>1</v>
       </c>
-      <c r="Y43" s="83" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="89" t="s">
+      <c r="Y43" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="72"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="72"/>
+      <c r="AC43" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="87" t="s">
         <v>1</v>
       </c>
       <c r="AF43" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="AG43" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="91" t="s">
+      <c r="AG43" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="89" t="s">
         <v>1</v>
       </c>
       <c r="AI43" s="26" t="s">
@@ -7699,9 +7597,9 @@
       <c r="Y44" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="72"/>
+      <c r="Z44" s="71"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="71"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="13" t="s">
         <v>54</v>
@@ -7807,9 +7705,9 @@
         <v>1</v>
       </c>
       <c r="Y45" s="24"/>
-      <c r="Z45" s="72"/>
-      <c r="AA45" s="72"/>
-      <c r="AB45" s="72"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="13" t="s">
         <v>54</v>
@@ -7917,9 +7815,9 @@
       <c r="Y46" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Z46" s="72"/>
-      <c r="AA46" s="72"/>
-      <c r="AB46" s="72"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="71"/>
+      <c r="AB46" s="71"/>
       <c r="AC46" s="17" t="s">
         <v>1</v>
       </c>
@@ -8147,10 +8045,10 @@
       <c r="Y48" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z48" s="66" t="s">
+      <c r="Z48" s="102" t="s">
         <v>401</v>
       </c>
-      <c r="AA48" s="84" t="s">
+      <c r="AA48" s="103" t="s">
         <v>411</v>
       </c>
       <c r="AB48" s="31"/>
@@ -8383,10 +8281,10 @@
       <c r="Y50" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z50" s="66" t="s">
+      <c r="Z50" s="102" t="s">
         <v>364</v>
       </c>
-      <c r="AA50" s="66" t="s">
+      <c r="AA50" s="102" t="s">
         <v>413</v>
       </c>
       <c r="AB50" s="31"/>
@@ -8503,12 +8401,12 @@
       <c r="Y51" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z51" s="95" t="s">
+      <c r="Z51" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="AA51" s="95"/>
-      <c r="AB51" s="95"/>
-      <c r="AC51" s="96" t="s">
+      <c r="AA51" s="93"/>
+      <c r="AB51" s="93"/>
+      <c r="AC51" s="94" t="s">
         <v>117</v>
       </c>
       <c r="AD51" s="13" t="s">
@@ -8619,12 +8517,12 @@
       <c r="Y52" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z52" s="95" t="s">
+      <c r="Z52" s="93" t="s">
         <v>360</v>
       </c>
-      <c r="AA52" s="95"/>
-      <c r="AB52" s="95"/>
-      <c r="AC52" s="96" t="s">
+      <c r="AA52" s="93"/>
+      <c r="AB52" s="93"/>
+      <c r="AC52" s="94" t="s">
         <v>117</v>
       </c>
       <c r="AD52" s="13" t="s">
@@ -8733,11 +8631,11 @@
       <c r="Y53" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z53" s="95" t="s">
+      <c r="Z53" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="AA53" s="95"/>
-      <c r="AB53" s="95"/>
+      <c r="AA53" s="93"/>
+      <c r="AB53" s="93"/>
       <c r="AC53" s="57" t="s">
         <v>53</v>
       </c>
@@ -8849,11 +8747,11 @@
       <c r="Y54" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="Z54" s="95" t="s">
+      <c r="Z54" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="AA54" s="95"/>
-      <c r="AB54" s="95"/>
+      <c r="AA54" s="93"/>
+      <c r="AB54" s="93"/>
       <c r="AC54" s="57" t="s">
         <v>53</v>
       </c>
@@ -8960,14 +8858,14 @@
       <c r="X55" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Y55" s="94" t="s">
+      <c r="Y55" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="Z55" s="95" t="s">
+      <c r="Z55" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="AA55" s="95"/>
-      <c r="AB55" s="95"/>
+      <c r="AA55" s="93"/>
+      <c r="AB55" s="93"/>
       <c r="AC55" s="57" t="s">
         <v>53</v>
       </c>
@@ -9074,14 +8972,14 @@
       <c r="X56" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Y56" s="94" t="s">
+      <c r="Y56" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="Z56" s="95" t="s">
+      <c r="Z56" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="AA56" s="95"/>
-      <c r="AB56" s="95"/>
+      <c r="AA56" s="93"/>
+      <c r="AB56" s="93"/>
       <c r="AC56" s="57" t="s">
         <v>53</v>
       </c>
@@ -9182,20 +9080,20 @@
       <c r="V57" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W57" s="79" t="s">
+      <c r="W57" s="78" t="s">
         <v>47</v>
       </c>
       <c r="X57" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Y57" s="94" t="s">
+      <c r="Y57" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="Z57" s="95" t="s">
+      <c r="Z57" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="AA57" s="95"/>
-      <c r="AB57" s="95"/>
+      <c r="AA57" s="93"/>
+      <c r="AB57" s="93"/>
       <c r="AC57" s="57" t="s">
         <v>53</v>
       </c>
@@ -9255,7 +9153,7 @@
       <c r="G58" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H58" s="74"/>
+      <c r="H58" s="73"/>
       <c r="I58" s="5" t="s">
         <v>1</v>
       </c>
@@ -9274,13 +9172,13 @@
       <c r="N58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="O58" s="76" t="s">
+      <c r="O58" s="75" t="s">
         <v>47</v>
       </c>
       <c r="P58" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q58" s="78" t="s">
+      <c r="Q58" s="77" t="s">
         <v>47</v>
       </c>
       <c r="R58" s="6" t="s">
@@ -9298,36 +9196,36 @@
       <c r="V58" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="W58" s="81" t="s">
+      <c r="W58" s="80" t="s">
         <v>47</v>
       </c>
       <c r="X58" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="Y58" s="98" t="s">
+      <c r="Y58" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="Z58" s="99" t="s">
+      <c r="Z58" s="97" t="s">
         <v>359</v>
       </c>
-      <c r="AA58" s="99"/>
-      <c r="AB58" s="99"/>
-      <c r="AC58" s="86" t="s">
+      <c r="AA58" s="97"/>
+      <c r="AB58" s="97"/>
+      <c r="AC58" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="AD58" s="88" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE58" s="100" t="s">
+      <c r="AD58" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE58" s="98" t="s">
         <v>1</v>
       </c>
       <c r="AF58" s="5">
         <v>45793</v>
       </c>
-      <c r="AG58" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="102" t="s">
+      <c r="AG58" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="100" t="s">
         <v>1</v>
       </c>
       <c r="AI58" s="5">
@@ -9352,8 +9250,8 @@
   </sheetData>
   <autoFilter ref="A2:AN57" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AN58">
-      <sortCondition descending="1" sortBy="cellColor" ref="Z3:Z58" dxfId="3"/>
-      <sortCondition descending="1" sortBy="fontColor" ref="Z3:Z58" dxfId="2"/>
+      <sortCondition descending="1" sortBy="cellColor" ref="Z3:Z58" dxfId="1"/>
+      <sortCondition descending="1" sortBy="fontColor" ref="Z3:Z58" dxfId="0"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/CDE_ID_detective_revamp/ReRun/Data_Dictionary_Tracker_as_of_2025-07-08.xlsx
+++ b/CDE_ID_detective_revamp/ReRun/Data_Dictionary_Tracker_as_of_2025-07-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\ReRun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D7CF2A-E448-4FFD-AC33-2D5F0526340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5B437-00CE-4295-BCFE-A2658E5CBFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38790" yWindow="7110" windowWidth="11400" windowHeight="18480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary track" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1741,6 +1741,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,7 +2169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2452,6 +2458,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2817,10 +2836,10 @@
   <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="23" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="23" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
+      <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -3065,7 +3084,7 @@
       <c r="Z3" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="106" t="s">
         <v>410</v>
       </c>
       <c r="AB3" s="6"/>
@@ -3183,7 +3202,7 @@
       <c r="Z4" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="106" t="s">
         <v>414</v>
       </c>
       <c r="AB4" s="6"/>
@@ -3303,7 +3322,7 @@
       <c r="Z5" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="107" t="s">
         <v>415</v>
       </c>
       <c r="AB5" s="31"/>
@@ -3413,7 +3432,7 @@
       <c r="Z6" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AA6" s="106" t="s">
         <v>416</v>
       </c>
       <c r="AB6" s="6"/>
@@ -3533,7 +3552,7 @@
       <c r="Z7" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="AA7" s="106" t="s">
         <v>417</v>
       </c>
       <c r="AB7" s="6"/>
@@ -3645,7 +3664,7 @@
       <c r="Z8" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AA8" s="106" t="s">
         <v>418</v>
       </c>
       <c r="AB8" s="6"/>
@@ -3757,7 +3776,7 @@
       <c r="Z9" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="AA9" s="6" t="s">
+      <c r="AA9" s="106" t="s">
         <v>424</v>
       </c>
       <c r="AB9" s="6"/>
@@ -3871,7 +3890,7 @@
       <c r="Z10" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="AA10" s="6" t="s">
+      <c r="AA10" s="106" t="s">
         <v>425</v>
       </c>
       <c r="AB10" s="6"/>
@@ -3983,7 +4002,7 @@
       <c r="Z11" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="AA11" s="6" t="s">
+      <c r="AA11" s="106" t="s">
         <v>419</v>
       </c>
       <c r="AB11" s="6"/>
@@ -4101,7 +4120,7 @@
       <c r="Z12" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AA12" s="106" t="s">
         <v>420</v>
       </c>
       <c r="AB12" s="31"/>
@@ -4219,7 +4238,7 @@
       <c r="Z13" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="AA13" s="6" t="s">
+      <c r="AA13" s="106" t="s">
         <v>421</v>
       </c>
       <c r="AB13" s="6"/>
@@ -4333,7 +4352,7 @@
       <c r="Z14" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AA14" s="6" t="s">
+      <c r="AA14" s="106" t="s">
         <v>422</v>
       </c>
       <c r="AB14" s="6"/>
@@ -4449,7 +4468,7 @@
       <c r="Z15" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AA15" s="6" t="s">
+      <c r="AA15" s="106" t="s">
         <v>426</v>
       </c>
       <c r="AB15" s="6"/>
@@ -4567,7 +4586,7 @@
       <c r="Z16" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AA16" s="106" t="s">
         <v>423</v>
       </c>
       <c r="AB16" s="6"/>
@@ -4683,7 +4702,7 @@
       <c r="Z17" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AA17" s="108" t="s">
         <v>427</v>
       </c>
       <c r="AB17" s="6"/>
@@ -4795,7 +4814,7 @@
       <c r="Z18" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="AA18" s="6" t="s">
+      <c r="AA18" s="106" t="s">
         <v>428</v>
       </c>
       <c r="AB18" s="6"/>
@@ -4909,7 +4928,7 @@
       <c r="Z19" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="AA19" s="6" t="s">
+      <c r="AA19" s="106" t="s">
         <v>429</v>
       </c>
       <c r="AB19" s="6"/>
@@ -5021,7 +5040,7 @@
       <c r="Z20" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="AA20" s="6" t="s">
+      <c r="AA20" s="106" t="s">
         <v>430</v>
       </c>
       <c r="AB20" s="6"/>
@@ -5141,7 +5160,7 @@
       <c r="Z21" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="AA21" s="31" t="s">
+      <c r="AA21" s="107" t="s">
         <v>431</v>
       </c>
       <c r="AB21" s="31"/>
@@ -5259,7 +5278,7 @@
       <c r="Z22" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="AA22" s="6" t="s">
+      <c r="AA22" s="106" t="s">
         <v>432</v>
       </c>
       <c r="AB22" s="6"/>
@@ -5371,7 +5390,7 @@
       <c r="Z23" s="101" t="s">
         <v>404</v>
       </c>
-      <c r="AA23" s="6" t="s">
+      <c r="AA23" s="106" t="s">
         <v>433</v>
       </c>
       <c r="AB23" s="6"/>
@@ -5483,7 +5502,7 @@
       <c r="Z24" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="AA24" s="6" t="s">
+      <c r="AA24" s="106" t="s">
         <v>434</v>
       </c>
       <c r="AB24" s="6"/>
@@ -5601,7 +5620,7 @@
       <c r="Z25" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="AA25" s="6" t="s">
+      <c r="AA25" s="106" t="s">
         <v>435</v>
       </c>
       <c r="AB25" s="6"/>
@@ -5721,7 +5740,7 @@
       <c r="Z26" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AA26" s="6" t="s">
+      <c r="AA26" s="106" t="s">
         <v>436</v>
       </c>
       <c r="AB26" s="6"/>
@@ -7927,7 +7946,7 @@
       <c r="Y47" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z47" s="66" t="s">
+      <c r="Z47" s="104" t="s">
         <v>362</v>
       </c>
       <c r="AA47" s="66" t="s">
@@ -8045,7 +8064,7 @@
       <c r="Y48" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z48" s="102" t="s">
+      <c r="Z48" s="105" t="s">
         <v>401</v>
       </c>
       <c r="AA48" s="103" t="s">
@@ -8163,7 +8182,7 @@
       <c r="Y49" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z49" s="66" t="s">
+      <c r="Z49" s="104" t="s">
         <v>343</v>
       </c>
       <c r="AA49" s="66" t="s">
@@ -8281,7 +8300,7 @@
       <c r="Y50" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="Z50" s="102" t="s">
+      <c r="Z50" s="105" t="s">
         <v>364</v>
       </c>
       <c r="AA50" s="102" t="s">
